--- a/biology/Histoire de la zoologie et de la botanique/Birbal_Sahni/Birbal_Sahni.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Birbal_Sahni/Birbal_Sahni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Birbal Sahni (14 novembre 1891 à Behra, district de Shahpur, Pendjab, Empire des Indes – 10 avril 1949 à Lucknow, Inde) est un paléobotaniste indien qui a étudié les fossiles du sous-continent indien ; c'est aussi un géologue qui s'est intéressé à l'archéologie. Il a fondé le Birbal Sahni Institute of Palaeobotany[1] à Lucknow, Inde. Ses contributions les plus importantes portent sur la botanique des plantes de l'Inde[2], il a aussi publié en paléobotanique[3],[4]. En plus d'avoir écrit de nombreux articles importants dans ces domaines, il a aussi occupé le poste de président de la National Academy of Sciences, India (en) et a été président honoraire du Congrès international de botanique tenu à Stockholm en 1950.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Birbal Sahni (14 novembre 1891 à Behra, district de Shahpur, Pendjab, Empire des Indes – 10 avril 1949 à Lucknow, Inde) est un paléobotaniste indien qui a étudié les fossiles du sous-continent indien ; c'est aussi un géologue qui s'est intéressé à l'archéologie. Il a fondé le Birbal Sahni Institute of Palaeobotany à Lucknow, Inde. Ses contributions les plus importantes portent sur la botanique des plantes de l'Inde, il a aussi publié en paléobotanique,. En plus d'avoir écrit de nombreux articles importants dans ces domaines, il a aussi occupé le poste de président de la National Academy of Sciences, India (en) et a été président honoraire du Congrès international de botanique tenu à Stockholm en 1950.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1915. Foreign pollen in the ovules of Ginkgo and its significance in the study of fossil plants. New Phytol. 14 (4 and 5), 149-151.
 1915. The anatomy of Nephrolepis volzibilis J. Sim, with remarks on the biology and morphology of the genus. New Phytol. 14 (8 and 9), 251-274.
